--- a/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
+++ b/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增資料夾\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63D3857-ACE2-47DD-934F-2000A5C0A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D99F4B-B0AA-423A-AD6C-BFEFFBD319A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2876,14 +2876,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2903,9 +2903,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2943,7 +2943,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3049,7 +3049,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3191,7 +3191,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3200,27 +3200,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34FC65B-4DED-4AE9-AF02-9BC8B379DBD3}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="69.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="11.453125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="69.453125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="13.90625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="21.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>96</v>
       </c>
@@ -3228,8 +3228,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
         <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3238,180 +3238,240 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A5" s="16"/>
       <c r="B5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A7" s="16"/>
       <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A9" s="16"/>
       <c r="B9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="D10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A11" s="16"/>
       <c r="B11" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A14" s="16"/>
       <c r="B14" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="D14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A15" s="16"/>
       <c r="B15" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="D16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="D17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="D18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="D19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A20" s="16"/>
       <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="D20" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A21" s="16"/>
       <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A22" s="16"/>
       <c r="B22" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="D22" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
       <c r="B23" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3420,36 +3480,48 @@
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A25" s="16"/>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A26" s="16"/>
       <c r="B26" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A27" s="16"/>
       <c r="B27" s="10" t="s">
         <v>191</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3458,234 +3530,309 @@
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A31" s="16"/>
       <c r="B31" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A32" s="16"/>
       <c r="B32" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="D32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A33" s="16"/>
       <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="D33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="D34" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A35" s="16"/>
       <c r="B35" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="D35" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A36" s="16"/>
       <c r="B36" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="D36" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A37" s="16"/>
       <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A38" s="16"/>
       <c r="B38" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="D38" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A39" s="16"/>
       <c r="B39" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="D39" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A40" s="16"/>
       <c r="B40" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="D40" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A41" s="16"/>
       <c r="B41" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
+      <c r="D41" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A42" s="16"/>
       <c r="B42" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="D42" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
       <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="D43" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="16"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="2">
+        <v>17</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A45" s="16"/>
       <c r="B45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="2">
+        <v>18</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A46" s="16"/>
       <c r="B46" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+      <c r="D46" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A47" s="16"/>
       <c r="B47" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="D47" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A48" s="16"/>
       <c r="B48" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="D48" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A49" s="16"/>
       <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+      <c r="D49" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A50" s="16"/>
       <c r="B50" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="D50" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A51" s="16"/>
       <c r="B51" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="D51" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A52" s="16"/>
       <c r="B52" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="2">
+        <v>25</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A53" s="16" t="s">
         <v>139</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -3694,72 +3841,96 @@
       <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A54" s="16"/>
       <c r="B54" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A55" s="16"/>
       <c r="B55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A56" s="16"/>
       <c r="B56" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="D56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A57" s="16"/>
       <c r="B57" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
+      <c r="D57" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A58" s="16"/>
       <c r="B58" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="D58" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A59" s="16"/>
       <c r="B59" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="D59" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A60" s="16"/>
       <c r="B60" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="D60" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A61" s="16" t="s">
         <v>147</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -3768,57 +3939,75 @@
       <c r="C61" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A62" s="16"/>
       <c r="B62" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A63" s="16"/>
       <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15"/>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A64" s="16"/>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="D64" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A65" s="16"/>
       <c r="B65" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="D65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A66" s="16"/>
       <c r="B66" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="D66" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A67" s="16" t="s">
         <v>153</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -3827,108 +4016,144 @@
       <c r="C67" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A68" s="16"/>
       <c r="B68" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A69" s="16"/>
       <c r="B69" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A70" s="16"/>
       <c r="B70" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A71" s="16"/>
       <c r="B71" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="D71" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A72" s="16"/>
       <c r="B72" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
+      <c r="D72" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A73" s="16"/>
       <c r="B73" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="D73" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A74" s="16"/>
       <c r="B74" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="D74" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A75" s="16"/>
       <c r="B75" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="D75" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A76" s="16"/>
       <c r="B76" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
+      <c r="D76" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A77" s="16"/>
       <c r="B77" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16" t="s">
+      <c r="D77" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A78" s="16"/>
+      <c r="B78" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="D78" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A79" s="16" t="s">
         <v>164</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3937,54 +4162,72 @@
       <c r="C79" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A80" s="16"/>
       <c r="B80" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A81" s="16"/>
       <c r="B81" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A82" s="16"/>
       <c r="B82" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="D82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A83" s="16"/>
       <c r="B83" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="D83" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A84" s="16"/>
       <c r="B84" s="10" t="s">
         <v>200</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="D84" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A85" s="16" t="s">
         <v>168</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3993,54 +4236,72 @@
       <c r="C85" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A86" s="16"/>
       <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A87" s="16"/>
       <c r="B87" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
+      <c r="D87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A88" s="16"/>
       <c r="B88" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
+      <c r="D88" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A89" s="16"/>
       <c r="B89" s="13" t="s">
         <v>207</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
+      <c r="D89" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A90" s="16"/>
       <c r="B90" s="13" t="s">
         <v>208</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="15" t="s">
+      <c r="D90" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A91" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -4049,45 +4310,60 @@
       <c r="C91" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
+      <c r="D91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A92" s="16"/>
       <c r="B92" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A93" s="16"/>
       <c r="B93" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
+      <c r="D93" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A94" s="16"/>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
+      <c r="D94" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A95" s="16"/>
       <c r="B95" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="D95" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A96" s="16" t="s">
         <v>177</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4096,17 +4372,23 @@
       <c r="C96" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A97" s="16"/>
       <c r="B97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.4">
       <c r="A98" s="6" t="s">
         <v>179</v>
       </c>
@@ -4116,9 +4398,12 @@
       <c r="C98" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="15" t="s">
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A99" s="16" t="s">
         <v>181</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -4127,14 +4412,20 @@
       <c r="C99" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A100" s="16"/>
       <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="D100" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
+++ b/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D99F4B-B0AA-423A-AD6C-BFEFFBD319A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E6172-1A1D-4908-ADF6-924468E7A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <r>
       <rPr>
@@ -2692,6 +2692,14 @@
       </rPr>
       <t>能源政策與管理</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3202,8 +3210,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -3226,6 +3234,12 @@
       </c>
       <c r="B3" s="5" t="s">
         <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.4">

--- a/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
+++ b/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E6172-1A1D-4908-ADF6-924468E7A840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0361E-8469-4CCA-9100-DEDAE74B89E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表1!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表1!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -391,19 +391,6 @@
   </si>
   <si>
     <t>G6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專家學者專長分類表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2707,7 +2694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2733,19 +2720,6 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -2841,23 +2815,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2869,26 +2843,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3208,10 +3179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34FC65B-4DED-4AE9-AF02-9BC8B379DBD3}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -3222,1240 +3193,1233 @@
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
+      <c r="A3" s="15"/>
+      <c r="B3" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
-        <v>98</v>
-      </c>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
-      <c r="B5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A12" s="15"/>
+      <c r="B12" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A16" s="15"/>
+      <c r="B16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
         <v>16</v>
       </c>
-      <c r="D14" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A18" s="15"/>
+      <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
         <v>17</v>
       </c>
-      <c r="D15" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="D16" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A21" s="15"/>
+      <c r="B21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A19" s="16"/>
-      <c r="B19" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="D19" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A20" s="16"/>
-      <c r="B20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
-      <c r="B21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2">
-        <v>18</v>
-      </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
-        <v>116</v>
-      </c>
+      <c r="A24" s="15"/>
       <c r="B24" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A25" s="15"/>
+      <c r="B25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
-      <c r="B25" s="1" t="s">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A28" s="15"/>
+      <c r="B28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A30" s="15"/>
+      <c r="B30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A32" s="15"/>
+      <c r="B32" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
-      <c r="B29" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>208</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A37" s="16"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A39" s="16"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A40" s="16"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A42" s="16"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A43" s="16"/>
+        <v>17</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="15"/>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="16"/>
+        <v>18</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A44" s="15"/>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2">
-        <v>17</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A45" s="16"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A45" s="15"/>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2">
-        <v>18</v>
-      </c>
-      <c r="E45" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A46" s="15"/>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A48" s="15"/>
+      <c r="B48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
+      <c r="B49" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A46" s="16"/>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D47" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A48" s="16"/>
-      <c r="B48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="D49" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A50" s="16"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A50" s="15"/>
       <c r="B50" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="D50" s="2">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A51" s="16"/>
+      <c r="A51" s="15" t="s">
+        <v>138</v>
+      </c>
       <c r="B51" s="1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>183</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A52" s="15"/>
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
-        <v>25</v>
-      </c>
-      <c r="E52" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A53" s="15"/>
+      <c r="B53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A54" s="15"/>
+      <c r="B54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A55" s="15"/>
+      <c r="B55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A57" s="15"/>
+      <c r="B57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A58" s="15"/>
+      <c r="B58" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A59" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A60" s="15"/>
+      <c r="B60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A53" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A55" s="16"/>
-      <c r="B55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="2">
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A61" s="15"/>
+      <c r="B61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="2">
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A62" s="15"/>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A58" s="16"/>
-      <c r="B58" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A60" s="16"/>
-      <c r="B60" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D60" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A61" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.4">
+      <c r="A64" s="15"/>
+      <c r="B64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A65" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A66" s="15"/>
+      <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A67" s="15"/>
+      <c r="B67" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="2">
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A68" s="15"/>
+      <c r="B68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="2">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A69" s="15"/>
+      <c r="B69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="2">
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A70" s="15"/>
+      <c r="B70" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A67" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D70" s="2">
-        <v>4</v>
-      </c>
-    </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A71" s="16"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D71" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A72" s="15"/>
+      <c r="B72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A73" s="15"/>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A74" s="15"/>
+      <c r="B74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A75" s="15"/>
+      <c r="B75" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A76" s="15"/>
+      <c r="B76" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A77" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A78" s="15"/>
+      <c r="B78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A79" s="15"/>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A80" s="15"/>
+      <c r="B80" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A81" s="15"/>
+      <c r="B81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="1" t="s">
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A82" s="15"/>
+      <c r="B82" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A83" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A84" s="15"/>
+      <c r="B84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A85" s="15"/>
+      <c r="B85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A86" s="15"/>
+      <c r="B86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A87" s="15"/>
+      <c r="B87" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D72" s="2">
+      <c r="D87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A88" s="15"/>
+      <c r="B88" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D88" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A73" s="16"/>
-      <c r="B73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D73" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A79" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D79" s="2">
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A89" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A80" s="16"/>
-      <c r="B80" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D80" s="2">
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A90" s="15"/>
+      <c r="B90" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="2">
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A91" s="15"/>
+      <c r="B91" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A82" s="16"/>
-      <c r="B82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2">
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A92" s="15"/>
+      <c r="B92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A83" s="16"/>
-      <c r="B83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A84" s="16"/>
-      <c r="B84" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A85" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A86" s="16"/>
-      <c r="B86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A87" s="16"/>
-      <c r="B87" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A88" s="16"/>
-      <c r="B88" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D88" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A89" s="16"/>
-      <c r="B89" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D89" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A90" s="16"/>
-      <c r="B90" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D90" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A91" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A92" s="16"/>
-      <c r="B92" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" s="2">
-        <v>2</v>
-      </c>
-    </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A93" s="16"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D93" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A94" s="16"/>
+      <c r="A94" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D94" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A95" s="16"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="1" t="s">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D95" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A96" s="16" t="s">
-        <v>177</v>
+      <c r="A96" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A97" s="16"/>
+      <c r="A97" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="B97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D97" s="2">
         <v>1</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" s="2">
+    </row>
+    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A98" s="15"/>
+      <c r="B98" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A98" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A99" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A100" s="16"/>
-      <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D100" s="2">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A91:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A4:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A85:A90"/>
-    <mergeCell ref="A28:A52"/>
-    <mergeCell ref="A79:A84"/>
+  <mergeCells count="11">
+    <mergeCell ref="A65:A76"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A51:A58"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A26:A50"/>
+    <mergeCell ref="A77:A82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
+++ b/Docs/需求/專家學者科別專長分類表修1.01_20240119.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA0361E-8469-4CCA-9100-DEDAE74B89E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD850B-2005-4112-AC44-8D7ED05ECF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="214">
   <si>
     <r>
       <rPr>
@@ -2786,7 +2786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2807,6 +2807,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2861,7 +2874,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3181,8 +3194,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -3208,7 +3221,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3222,7 +3235,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
+      <c r="A3" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>99</v>
       </c>
@@ -3234,7 +3249,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
+      <c r="A4" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
@@ -3246,7 +3263,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+      <c r="A5" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
@@ -3258,7 +3277,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
+      <c r="A6" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>102</v>
       </c>
@@ -3270,7 +3291,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>187</v>
       </c>
@@ -3282,7 +3305,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>103</v>
       </c>
@@ -3294,7 +3319,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>104</v>
       </c>
@@ -3306,7 +3333,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
@@ -3318,7 +3347,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3330,7 +3361,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>107</v>
       </c>
@@ -3341,8 +3374,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>108</v>
       </c>
@@ -3354,7 +3389,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>109</v>
       </c>
@@ -3366,7 +3403,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>188</v>
       </c>
@@ -3378,7 +3417,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
+      <c r="A16" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>189</v>
       </c>
@@ -3390,7 +3431,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
+      <c r="A17" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>110</v>
       </c>
@@ -3402,7 +3445,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
+      <c r="A18" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>111</v>
       </c>
@@ -3414,7 +3459,9 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
+      <c r="A19" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
@@ -3426,7 +3473,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
+      <c r="A20" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>113</v>
       </c>
@@ -3438,7 +3487,9 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
+      <c r="A21" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>114</v>
       </c>
@@ -3450,7 +3501,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3464,7 +3515,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A23" s="15"/>
+      <c r="A23" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3529,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
+      <c r="A24" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>117</v>
       </c>
@@ -3488,7 +3543,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
+      <c r="A25" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="B25" s="10" t="s">
         <v>190</v>
       </c>
@@ -3500,7 +3557,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3514,7 +3571,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B27" s="11" t="s">
         <v>210</v>
       </c>
@@ -3526,7 +3585,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>209</v>
       </c>
@@ -3538,7 +3599,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
+      <c r="A29" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B29" s="1" t="s">
         <v>120</v>
       </c>
@@ -3550,7 +3613,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
+      <c r="A30" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>121</v>
       </c>
@@ -3562,7 +3627,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
+      <c r="A31" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B31" s="1" t="s">
         <v>122</v>
       </c>
@@ -3574,7 +3641,9 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
+      <c r="A32" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>191</v>
       </c>
@@ -3586,7 +3655,9 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
@@ -3598,7 +3669,9 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B34" s="1" t="s">
         <v>124</v>
       </c>
@@ -3610,7 +3683,9 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B35" s="1" t="s">
         <v>125</v>
       </c>
@@ -3622,7 +3697,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>208</v>
       </c>
@@ -3634,7 +3711,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
+      <c r="A37" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
@@ -3646,7 +3725,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -3658,7 +3739,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B39" s="1" t="s">
         <v>128</v>
       </c>
@@ -3670,7 +3753,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B40" s="1" t="s">
         <v>129</v>
       </c>
@@ -3682,7 +3767,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
@@ -3694,7 +3781,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
+      <c r="A42" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B42" s="1" t="s">
         <v>131</v>
       </c>
@@ -3709,7 +3798,9 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
+      <c r="A43" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -3724,7 +3815,9 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
+      <c r="A44" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3736,7 +3829,9 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
+      <c r="A45" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B45" s="1" t="s">
         <v>133</v>
       </c>
@@ -3748,7 +3843,9 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
+      <c r="A46" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B46" s="1" t="s">
         <v>134</v>
       </c>
@@ -3760,7 +3857,9 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
+      <c r="A47" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B47" s="1" t="s">
         <v>135</v>
       </c>
@@ -3772,7 +3871,9 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
+      <c r="A48" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>136</v>
       </c>
@@ -3784,7 +3885,9 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
+      <c r="A49" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B49" s="1" t="s">
         <v>194</v>
       </c>
@@ -3796,7 +3899,9 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
+      <c r="A50" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="B50" s="1" t="s">
         <v>137</v>
       </c>
@@ -3811,7 +3916,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -3825,7 +3930,9 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
+      <c r="A52" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B52" s="1" t="s">
         <v>140</v>
       </c>
@@ -3837,7 +3944,9 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A53" s="15"/>
+      <c r="A53" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B53" s="1" t="s">
         <v>141</v>
       </c>
@@ -3849,7 +3958,9 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A54" s="15"/>
+      <c r="A54" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B54" s="1" t="s">
         <v>142</v>
       </c>
@@ -3861,7 +3972,9 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A55" s="15"/>
+      <c r="A55" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>143</v>
       </c>
@@ -3873,7 +3986,9 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A56" s="15"/>
+      <c r="A56" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>144</v>
       </c>
@@ -3885,7 +4000,9 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A57" s="15"/>
+      <c r="A57" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>145</v>
       </c>
@@ -3897,7 +4014,9 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A58" s="15"/>
+      <c r="A58" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="B58" s="12" t="s">
         <v>201</v>
       </c>
@@ -3909,7 +4028,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -3923,7 +4042,9 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A60" s="15"/>
+      <c r="A60" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="B60" s="1" t="s">
         <v>148</v>
       </c>
@@ -3938,7 +4059,9 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A61" s="15"/>
+      <c r="A61" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="B61" s="1" t="s">
         <v>149</v>
       </c>
@@ -3950,7 +4073,9 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A62" s="15"/>
+      <c r="A62" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3962,7 +4087,9 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A63" s="15"/>
+      <c r="A63" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
@@ -3974,7 +4101,9 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.4">
-      <c r="A64" s="15"/>
+      <c r="A64" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="B64" s="1" t="s">
         <v>151</v>
       </c>
@@ -3986,7 +4115,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -4000,7 +4129,9 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A66" s="15"/>
+      <c r="A66" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B66" s="1" t="s">
         <v>154</v>
       </c>
@@ -4012,7 +4143,9 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A67" s="15"/>
+      <c r="A67" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B67" s="1" t="s">
         <v>155</v>
       </c>
@@ -4024,7 +4157,9 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A68" s="15"/>
+      <c r="A68" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B68" s="1" t="s">
         <v>156</v>
       </c>
@@ -4036,7 +4171,9 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A69" s="15"/>
+      <c r="A69" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B69" s="1" t="s">
         <v>157</v>
       </c>
@@ -4048,7 +4185,9 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A70" s="15"/>
+      <c r="A70" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B70" s="1" t="s">
         <v>202</v>
       </c>
@@ -4060,7 +4199,9 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A71" s="15"/>
+      <c r="A71" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>158</v>
       </c>
@@ -4072,7 +4213,9 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A72" s="15"/>
+      <c r="A72" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B72" s="1" t="s">
         <v>159</v>
       </c>
@@ -4084,7 +4227,9 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A73" s="15"/>
+      <c r="A73" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B73" s="1" t="s">
         <v>160</v>
       </c>
@@ -4096,7 +4241,9 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A74" s="15"/>
+      <c r="A74" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B74" s="1" t="s">
         <v>161</v>
       </c>
@@ -4108,7 +4255,9 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A75" s="15"/>
+      <c r="A75" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>162</v>
       </c>
@@ -4120,7 +4269,9 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A76" s="15"/>
+      <c r="A76" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="B76" s="14" t="s">
         <v>211</v>
       </c>
@@ -4132,7 +4283,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -4146,7 +4297,9 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A78" s="15"/>
+      <c r="A78" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="B78" s="1" t="s">
         <v>198</v>
       </c>
@@ -4158,7 +4311,9 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A79" s="15"/>
+      <c r="A79" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>164</v>
       </c>
@@ -4170,7 +4325,9 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A80" s="15"/>
+      <c r="A80" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="B80" s="1" t="s">
         <v>165</v>
       </c>
@@ -4182,7 +4339,9 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A81" s="15"/>
+      <c r="A81" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="B81" s="1" t="s">
         <v>166</v>
       </c>
@@ -4194,7 +4353,9 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A82" s="15"/>
+      <c r="A82" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="B82" s="10" t="s">
         <v>199</v>
       </c>
@@ -4206,7 +4367,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A83" s="15" t="s">
+      <c r="A83" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -4220,7 +4381,9 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A84" s="15"/>
+      <c r="A84" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="B84" s="1" t="s">
         <v>169</v>
       </c>
@@ -4232,7 +4395,9 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A85" s="15"/>
+      <c r="A85" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>170</v>
       </c>
@@ -4244,7 +4409,9 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A86" s="15"/>
+      <c r="A86" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>200</v>
       </c>
@@ -4256,7 +4423,9 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A87" s="15"/>
+      <c r="A87" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="B87" s="13" t="s">
         <v>206</v>
       </c>
@@ -4268,7 +4437,9 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A88" s="15"/>
+      <c r="A88" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="B88" s="13" t="s">
         <v>207</v>
       </c>
@@ -4280,7 +4451,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -4294,7 +4465,9 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A90" s="15"/>
+      <c r="A90" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>173</v>
       </c>
@@ -4306,7 +4479,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A91" s="15"/>
+      <c r="A91" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>174</v>
       </c>
@@ -4318,7 +4493,9 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A92" s="15"/>
+      <c r="A92" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
@@ -4330,7 +4507,9 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A93" s="15"/>
+      <c r="A93" s="6" t="s">
+        <v>171</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>175</v>
       </c>
@@ -4342,7 +4521,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -4356,7 +4535,9 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A95" s="15"/>
+      <c r="A95" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="B95" s="1" t="s">
         <v>1</v>
       </c>
@@ -4396,7 +4577,9 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.4">
-      <c r="A98" s="15"/>
+      <c r="A98" s="15" t="s">
+        <v>180</v>
+      </c>
       <c r="B98" s="1" t="s">
         <v>2</v>
       </c>
@@ -4408,19 +4591,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A65:A76"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A51:A58"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A26:A50"/>
-    <mergeCell ref="A77:A82"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
